--- a/report/reliability/comb/Faculdade de Serviço Social - FSSO-Presencial.xlsx
+++ b/report/reliability/comb/Faculdade de Serviço Social - FSSO-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1016,11 +1016,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,6 +2227,11 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3395,6 +3395,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3422,14 +3423,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3438,6 +3438,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3453,14 +3454,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3468,6 +3468,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3483,20 +3484,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3512,20 +3513,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3553,14 +3554,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3569,6 +3569,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3584,14 +3585,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3599,6 +3599,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3614,20 +3615,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3643,19 +3644,19 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3683,14 +3684,13 @@
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3699,6 +3699,7 @@
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3714,14 +3715,13 @@
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3729,6 +3729,7 @@
     <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3744,20 +3745,20 @@
     <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3773,14 +3774,13 @@
     <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4122,31 +4122,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.775002304859729</v>
+        <v>0.654217158825268</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7895524817696639</v>
+        <v>0.7188907861348333</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9330502510078041</v>
+        <v>0.9161890648019919</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2381812648730986</v>
+        <v>0.17567336604605063</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.7517785356133007</v>
+        <v>2.557336261769233</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.054569451860223016</v>
+        <v>0.0832599266759826</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.263157894736842</v>
+        <v>1.8085585585585586</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8138548569304</v>
+        <v>0.6229487526930407</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.2301019941586529</v>
+        <v>0.1903207283451137</v>
       </c>
     </row>
     <row r="7">
@@ -4196,28 +4196,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7420450476258684</v>
+        <v>0.6254332567240202</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7553757085740419</v>
+        <v>0.7003179165267615</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9095542643219275</v>
+        <v>0.8895310460902192</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.21918817894365775</v>
+        <v>0.1752187414659662</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.0879014678829453</v>
+        <v>2.3368694865247055</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.06303712872531798</v>
+        <v>0.09032602903524808</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.07904444924533628</v>
+        <v>0.12165556533941022</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.2207294629341524</v>
+        <v>0.18970080273373413</v>
       </c>
     </row>
     <row r="12">
@@ -4225,28 +4225,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7476966528664656</v>
+        <v>0.6350952137420656</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7610728930402713</v>
+        <v>0.708605237860281</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9163226335843858</v>
+        <v>0.8953610215773465</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.22455356252478842</v>
+        <v>0.18104617291922906</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.185376924053034</v>
+        <v>2.43177067651105</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.06178321090847552</v>
+        <v>0.08855756222537199</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.08105180748690759</v>
+        <v>0.11931189299758402</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.22971346786012964</v>
+        <v>0.1909406539564933</v>
       </c>
     </row>
     <row r="13">
@@ -4254,28 +4254,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7243506648012259</v>
+        <v>0.6286077852970098</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7420974125928737</v>
+        <v>0.642760456810153</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9041115190294153</v>
+        <v>0.8816378150042792</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.20734619941395177</v>
+        <v>0.1405741183988711</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.8774329876008355</v>
+        <v>1.7992421865475632</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.06756629725086152</v>
+        <v>0.09056087759025859</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.07998751012013898</v>
+        <v>0.1110926382559998</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.21337575327254202</v>
+        <v>0.18768699452749535</v>
       </c>
     </row>
     <row r="14">
@@ -4283,28 +4283,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7301446201311222</v>
+        <v>0.5420001539171925</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7503482814580992</v>
+        <v>0.6392466072802646</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9116764305202635</v>
+        <v>0.8839430737300072</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2145987683364354</v>
+        <v>0.1387394249029658</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.005580277358125</v>
+        <v>1.7719767025916422</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.06654130714252375</v>
+        <v>0.11459329451647306</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.08214181548780727</v>
+        <v>0.11090658476827316</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.2207294629341524</v>
+        <v>0.1737369587064687</v>
       </c>
     </row>
     <row r="15">
@@ -4312,28 +4312,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.739133586757503</v>
+        <v>0.5371555347968239</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7592809137692635</v>
+        <v>0.6372546215344965</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8970918282267034</v>
+        <v>0.8822476143357956</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.22284660427126035</v>
+        <v>0.13771172035206014</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.154219823855056</v>
+        <v>1.756754625600553</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.06368016645059581</v>
+        <v>0.11607985796464815</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.08650251167631472</v>
+        <v>0.11079750583218426</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2207294629341524</v>
+        <v>0.1737369587064687</v>
       </c>
     </row>
     <row r="16">
@@ -4341,28 +4341,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7378641865682106</v>
+        <v>0.6515913913307063</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7581054831868143</v>
+        <v>0.7287781515337589</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8948971217761235</v>
+        <v>0.9160896015885092</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.22173666025800856</v>
+        <v>0.19631876586596808</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.1340333512904532</v>
+        <v>2.6870185999210507</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.06396576337030828</v>
+        <v>0.08484452662093057</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.08629086333403002</v>
+        <v>0.10722642370078594</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.20828595298441138</v>
+        <v>0.20445807797281884</v>
       </c>
     </row>
     <row r="17">
@@ -4370,28 +4370,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7884518442541486</v>
+        <v>0.6689683326529423</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8088737101569021</v>
+        <v>0.7291319867882002</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9208382924718332</v>
+        <v>0.9052611259362645</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.27784289443349247</v>
+        <v>0.19660147567695435</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.232142583947681</v>
+        <v>2.6918349573379503</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.05055783042052309</v>
+        <v>0.07655498093586087</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.0718341055565396</v>
+        <v>0.10493495148604653</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2683241176733742</v>
+        <v>0.2016065529199162</v>
       </c>
     </row>
     <row r="18">
@@ -4399,28 +4399,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.814569113292816</v>
+        <v>0.7263113064981452</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8158438660084495</v>
+        <v>0.7468135889086536</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9207462220254303</v>
+        <v>0.9127868070211885</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2871111225185476</v>
+        <v>0.2114502612376842</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.430174810500102</v>
+        <v>2.9496590503793363</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.043911293316703584</v>
+        <v>0.0615742098636756</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.0652055832289137</v>
+        <v>0.09943394416255835</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2683241176733742</v>
+        <v>0.20445807797281884</v>
       </c>
     </row>
     <row r="19">
@@ -4428,28 +4428,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7629153612957162</v>
+        <v>0.633212346827982</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7777620057623863</v>
+        <v>0.7115356389004452</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.931743511036955</v>
+        <v>0.9121646990564949</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.24136260145315933</v>
+        <v>0.1831662592898951</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.499680639354646</v>
+        <v>2.466632745162165</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.05796535486547605</v>
+        <v>0.088541304681184</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.08880388676738174</v>
+        <v>0.1253693210999763</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2207294629341524</v>
+        <v>0.18768699452749535</v>
       </c>
     </row>
     <row r="20">
@@ -4457,28 +4457,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7716573111254256</v>
+        <v>0.6483830387825233</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.78542497980213</v>
+        <v>0.7203197630137761</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9375602548903016</v>
+        <v>0.924120320809299</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.24967811471746607</v>
+        <v>0.18971747614030063</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.6603747215209466</v>
+        <v>2.5755118444398946</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.05606864836717492</v>
+        <v>0.08537100784704282</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.08928306018168672</v>
+        <v>0.1256683053196689</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.25052497432943244</v>
+        <v>0.1909406539564933</v>
       </c>
     </row>
     <row r="21">
@@ -4486,28 +4486,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.761343201941814</v>
+        <v>0.6182388310596755</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7763387255269705</v>
+        <v>0.6970025060544756</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9281528246066849</v>
+        <v>0.9090438949459294</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.23986148073814795</v>
+        <v>0.17295455096519619</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.471046685914264</v>
+        <v>2.3003573296213093</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.058120612792655194</v>
+        <v>0.0924968720049931</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.08895446376587039</v>
+        <v>0.12612296039409093</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.2207294629341524</v>
+        <v>0.18970080273373413</v>
       </c>
     </row>
     <row r="22">
@@ -4515,28 +4515,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7735713581545135</v>
+        <v>0.6419588134346653</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7875434872609514</v>
+        <v>0.7134673938415387</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9223176747442827</v>
+        <v>0.9004902473981407</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2520489908682673</v>
+        <v>0.18458142533751692</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.70684558975256</v>
+        <v>2.490004203734388</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.05538822101813331</v>
+        <v>0.08676871130674006</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.08020714780115444</v>
+        <v>0.11644746350183485</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.24147988840702844</v>
+        <v>0.18970080273373413</v>
       </c>
     </row>
     <row r="23">
@@ -4583,25 +4583,25 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="84">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.6817003786886279</v>
+        <v>0.4921683876174931</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.7077357514678021</v>
+        <v>0.4985503100668512</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.7064652289001524</v>
+        <v>0.4774992689661618</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>0.5978083318936065</v>
+        <v>0.35229115981052495</v>
       </c>
       <c r="G27" t="n" s="89">
-        <v>3.263157894736842</v>
+        <v>3.3513513513513513</v>
       </c>
       <c r="H27" t="n" s="90">
-        <v>1.329177972471541</v>
+        <v>1.2296389762902005</v>
       </c>
     </row>
     <row r="28">
@@ -4609,25 +4609,25 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="84">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6354234874726877</v>
+        <v>0.429183281149811</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6629624703196695</v>
+        <v>0.4445200429718126</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.651700819266432</v>
+        <v>0.4182870155884949</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5465027981846089</v>
+        <v>0.29431134286683425</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.8421052631578947</v>
+        <v>3.945945945945946</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2845509424523942</v>
+        <v>1.1290592432528839</v>
       </c>
     </row>
     <row r="29">
@@ -4635,25 +4635,25 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="84">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.8037194940826126</v>
+        <v>0.787886278766677</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.8065552059982518</v>
+        <v>0.8197652832046312</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.8178700543547835</v>
+        <v>0.854975683599646</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.7403581678275043</v>
+        <v>0.7692993433625651</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.1842105263157894</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.4492358314026523</v>
+        <v>0.3465834966066909</v>
       </c>
     </row>
     <row r="30">
@@ -4661,25 +4661,25 @@
         <v>21</v>
       </c>
       <c r="B30" t="n" s="84">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.7451649531883212</v>
+        <v>0.8100946521616335</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.7460336603338237</v>
+        <v>0.836776033209385</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.7490635224461493</v>
+        <v>0.8731041388299937</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.6519131148030253</v>
+        <v>0.7125488773747728</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.6842105263157894</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.6782433408887858</v>
+        <v>1.6047040459458795</v>
       </c>
     </row>
     <row r="31">
@@ -4687,25 +4687,25 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="84">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6898381033067154</v>
+        <v>0.8221143472922743</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.6772067681667268</v>
+        <v>0.8463046139958874</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.6986052501574558</v>
+        <v>0.881641771183849</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.5888396998207667</v>
+        <v>0.7283361993032803</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.6052631578947368</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.5860791992121774</v>
+        <v>1.6219218941214866</v>
       </c>
     </row>
     <row r="32">
@@ -4713,25 +4713,25 @@
         <v>23</v>
       </c>
       <c r="B32" t="n" s="84">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6980812640879274</v>
+        <v>0.261279294722761</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.686469076184887</v>
+        <v>0.3029169571587512</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.7083510676838463</v>
+        <v>0.26733094813432184</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.5977964199902547</v>
+        <v>0.21080829205271764</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.6052631578947368</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.6030287833434544</v>
+        <v>0.3970612769556579</v>
       </c>
     </row>
     <row r="33">
@@ -4739,25 +4739,25 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="84">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.27816376166431694</v>
+        <v>0.2972996280557467</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.2182713865105627</v>
+        <v>0.3002957531651082</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.19683692442450076</v>
+        <v>0.2870836270310876</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.127399408545819</v>
+        <v>0.10337816780772334</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.3421052631578947</v>
+        <v>2.4054054054054053</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.5116898686207</v>
+        <v>1.4806053465364064</v>
       </c>
     </row>
     <row r="34">
@@ -4765,25 +4765,25 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="84">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.20736370139730317</v>
+        <v>0.1727897474992777</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.14092948252133328</v>
+        <v>0.16262208744846054</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.11882041314630364</v>
+        <v>0.13509341332060873</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.004353473307717143</v>
+        <v>-0.08913527270924679</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.8947368421052633</v>
+        <v>2.972972972972973</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.9835740835906435</v>
+        <v>1.9505908860662722</v>
       </c>
     </row>
     <row r="35">
@@ -4791,25 +4791,25 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="84">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.4933376547391625</v>
+        <v>0.46031931857399233</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5226936872234073</v>
+        <v>0.42486321237837854</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4596364040509988</v>
+        <v>0.3695822803160909</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3783911814603981</v>
+        <v>0.3001501277753172</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.0263157894736843</v>
+        <v>1.054054054054054</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.3453994103081315</v>
+        <v>1.3528970139409469</v>
       </c>
     </row>
     <row r="36">
@@ -4817,25 +4817,25 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="84">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.430874577448052</v>
+        <v>0.40871101731830306</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.4533020383982964</v>
+        <v>0.36412221541191225</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.37759566998420774</v>
+        <v>0.27463469146796954</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.2939643809640986</v>
+        <v>0.22100531499996745</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>1.9736842105263157</v>
+        <v>2.0</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.4975085995378792</v>
+        <v>1.509230856356236</v>
       </c>
     </row>
     <row r="37">
@@ -4843,25 +4843,25 @@
         <v>28</v>
       </c>
       <c r="B37" t="n" s="84">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5126917909999852</v>
+        <v>0.5384280802377578</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5352203032228414</v>
+        <v>0.519543232676375</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.48407367182842875</v>
+        <v>0.46298588242956273</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.3938523427484749</v>
+        <v>0.3816771801329271</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.0</v>
+        <v>2.027027027027027</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.4142135623730951</v>
+        <v>1.4237369936287485</v>
       </c>
     </row>
     <row r="38">
@@ -4869,25 +4869,25 @@
         <v>29</v>
       </c>
       <c r="B38" t="n" s="84">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.39568637150732777</v>
+        <v>0.4221312314678871</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.4335174502393902</v>
+        <v>0.41174220011936263</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.3974269805033755</v>
+        <v>0.3757801356666165</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.266056391072422</v>
+        <v>0.25045160240717296</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>1.736842105263158</v>
+        <v>1.7567567567567568</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.3888398916598408</v>
+        <v>1.40248599528372</v>
       </c>
     </row>
     <row r="39">
@@ -4934,22 +4934,22 @@
         <v>18</v>
       </c>
       <c r="B43" t="n" s="109">
-        <v>0.02631578947368421</v>
+        <v>0.0</v>
       </c>
       <c r="C43" t="n" s="110">
-        <v>0.15789473684210525</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="D43" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E43" t="n" s="112">
-        <v>0.2894736842105263</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="F43" t="n" s="113">
-        <v>0.39473684210526316</v>
+        <v>0.40540540540540543</v>
       </c>
       <c r="G43" t="n" s="114">
-        <v>0.13157894736842105</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="H43" t="n" s="115">
         <v>0.0</v>
@@ -4960,22 +4960,22 @@
         <v>19</v>
       </c>
       <c r="B44" t="n" s="109">
-        <v>0.02631578947368421</v>
+        <v>0.0</v>
       </c>
       <c r="C44" t="n" s="110">
-        <v>0.02631578947368421</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="D44" t="n" s="111">
-        <v>0.10526315789473684</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="E44" t="n" s="112">
-        <v>0.15789473684210525</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="F44" t="n" s="113">
-        <v>0.2894736842105263</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="G44" t="n" s="114">
-        <v>0.39473684210526316</v>
+        <v>0.40540540540540543</v>
       </c>
       <c r="H44" t="n" s="115">
         <v>0.0</v>
@@ -4986,22 +4986,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.10526315789473684</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.05263157894736842</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.02631578947368421</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3157894736842105</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.3684210526315789</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.13157894736842105</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5012,22 +5012,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.10526315789473684</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.02631578947368421</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.05263157894736842</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.21052631578947367</v>
+        <v>0.0</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.10526315789473684</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5038,7 +5038,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.868421052631579</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C47" t="n" s="110">
         <v>0.0</v>
@@ -5047,13 +5047,13 @@
         <v>0.0</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.0</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.05263157894736842</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.07894736842105263</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5064,22 +5064,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.868421052631579</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.02631578947368421</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
         <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.10526315789473684</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5090,19 +5090,19 @@
         <v>24</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.21052631578947367</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.13157894736842105</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="D49" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.42105263157894735</v>
+        <v>0.43243243243243246</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.23684210526315788</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="G49" t="n" s="114">
         <v>0.0</v>
@@ -5116,22 +5116,22 @@
         <v>25</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.21052631578947367</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.10526315789473684</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.05263157894736842</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.18421052631578946</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.10526315789473684</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.34210526315789475</v>
+        <v>0.35135135135135137</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5142,19 +5142,19 @@
         <v>26</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.5526315789473685</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.13157894736842105</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.10526315789473684</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.15789473684210525</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.05263157894736842</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5168,19 +5168,19 @@
         <v>27</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.23684210526315788</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.21052631578947367</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.07894736842105263</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.2894736842105263</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.18421052631578946</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="G52" t="n" s="114">
         <v>0.0</v>
@@ -5194,19 +5194,19 @@
         <v>28</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.23684210526315788</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.07894736842105263</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.3157894736842105</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.18421052631578946</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.18421052631578946</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="G53" t="n" s="114">
         <v>0.0</v>
@@ -5220,19 +5220,19 @@
         <v>29</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.2894736842105263</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.10526315789473684</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.3157894736842105</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.15789473684210525</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.13157894736842105</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -5317,31 +5317,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.9159386215679464</v>
+        <v>0.8702805065688246</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.9195259197251009</v>
+        <v>0.9961766239817391</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.93934270914509</v>
+        <v>0.9952804393524567</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.7407035974434008</v>
+        <v>0.98861691556927</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>11.426361339999229</v>
+        <v>260.5489544381435</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.02295270971990138</v>
+        <v>0.0024086619893726427</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.4934210526315788</v>
+        <v>0.45945945945945943</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.2898863899600876</v>
+        <v>1.1872557613713972</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.7000503910756404</v>
+        <v>0.989384292648116</v>
       </c>
     </row>
     <row r="7">
@@ -5388,118 +5388,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8903464365893383</v>
+        <v>0.9946353487023343</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8912336794336697</v>
+        <v>0.9946638226756315</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.8760221288489496</v>
+        <v>0.9893842926481161</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.7319998243369991</v>
+        <v>0.989384292648116</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>8.194022513523928</v>
+        <v>186.40006922808163</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.029921790491384524</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.02182819820929114</v>
-      </c>
+        <v>0.0017591488006611369</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6532412555335391</v>
+        <v>0.989384292648116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.9058798735511063</v>
+        <v>0.5732087227414331</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.9082898099089519</v>
+        <v>0.9914067040745029</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.89411412527263</v>
+        <v>0.9829598392925827</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.7675123946819223</v>
+        <v>0.9829598392925829</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>9.903913720026294</v>
+        <v>115.36978508245272</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.0262882265587734</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.014661802149720342</v>
-      </c>
+        <v>0.011512714215305872</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.7318062780574004</v>
+        <v>0.9829598392925828</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8736420811892511</v>
+        <v>0.5815883050177795</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8868636917962927</v>
+        <v>0.9967427320357063</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.8566815434806232</v>
+        <v>0.9935066147671113</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.7232190297085154</v>
+        <v>0.9935066147671114</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>7.838895451665729</v>
+        <v>306.00575174103864</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.03646530130179329</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.011757088442605286</v>
-      </c>
+        <v>0.007082561793783156</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6682945040938802</v>
+        <v>0.9935066147671114</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8922434055889265</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8952018415738797</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8705390002587047</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.7400831410461661</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>8.54215241010148</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.03139384458489561</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.010846539341544769</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.7318062780574004</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5508,283 +5478,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>37.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9925274122077956</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9959416440017987</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9939586072235788</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9908381227970272</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.3465834966066909</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8916974670127771</v>
+        <v>0.9977465692914952</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.90478519988156</v>
+        <v>0.9980913005611717</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8729164205346749</v>
+        <v>0.99774145155429</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.8139058117889694</v>
+        <v>0.9925666937514755</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.263157894736842</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.329177972471541</v>
+        <v>1.6047040459458795</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8597908839100321</v>
+        <v>0.996771615453294</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8751093523378184</v>
+        <v>0.9945622929048974</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.8298569474484894</v>
+        <v>0.9898344096681512</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7672162422205034</v>
+        <v>0.9891818667207113</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.8421052631578947</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2845509424523942</v>
+        <v>1.6219218941214866</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>38.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.9223623349873431</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.9121228135821982</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8985419300571583</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.8566438677867987</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.1842105263157894</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.4492358314026523</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>38.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.9135476099239983</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8980304290502982</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8781480403686827</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.8225438098370026</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.6842105263157894</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.6782433408887858</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.02631578947368421</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.15789473684210525</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.2894736842105263</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.39473684210526316</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.13157894736842105</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.2894736842105263</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.39473684210526316</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.13157894736842105</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5814,7 +5715,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
+      <c r="A1" t="s" s="231">
         <v>45</v>
       </c>
     </row>
@@ -5829,66 +5730,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.8797796707871643</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.8977825099451997</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.8145239193224592</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.8145239193224592</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>8.783061582356256</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.035244596436676365</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>2.6184210526315788</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.666174654736216</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.8145239193224592</v>
+      <c r="A6" t="n" s="260">
+        <v>0.7832245278619725</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.9146991700072769</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.879322867740587</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.7813923397465956</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>10.723215355411046</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.02808294255930866</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>2.063063063063063</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>1.1962849846215984</v>
+      </c>
+      <c r="I6" t="n" s="268">
+        <v>0.7955857094019261</v>
       </c>
     </row>
     <row r="7">
@@ -5902,86 +5803,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n" s="287">
+        <v>0.8717514124293784</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.8902492768801173</v>
+      </c>
+      <c r="D11" t="n" s="289">
+        <v>0.8022065301091466</v>
+      </c>
+      <c r="E11" t="n" s="290">
+        <v>0.8022065301091466</v>
+      </c>
+      <c r="F11" t="n" s="291">
+        <v>8.111557277920458</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.03819795865883366</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
+        <v>0.8022065301091466</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
-        <v>0.814523919322459</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.814523919322459</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.6634492151484199</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.814523919322459</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.814523919322459</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.814523919322459</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="B12" t="n" s="287">
+        <v>0.45174537987679675</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.8547770095026352</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.7463847797287144</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.7463847797287144</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>5.885962040687669</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.04903191534351376</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.7463847797287143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.6634492151484199</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.814523919322459</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.6634492151484199</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.814523919322459</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="287">
+        <v>0.5694698354661791</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.8861573192926779</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.7955857094019261</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.7955857094019261</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>7.78405176149091</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.046778186258629756</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.7955857094019261</v>
       </c>
     </row>
     <row r="14">
@@ -5990,174 +5921,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="298">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="F17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n" s="313">
+        <v>37.0</v>
+      </c>
+      <c r="C18" t="n" s="314">
+        <v>0.8445315064899964</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.9167561190700043</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.8490987826122954</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.8078111482420293</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.8108108108108109</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.3970612769556579</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
-        <v>38.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9384845689987166</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9525029971927802</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.859643279061402</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.814523919322459</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.3421052631578947</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.5116898686207</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+      <c r="B19" t="n" s="313">
+        <v>37.0</v>
+      </c>
+      <c r="C19" t="n" s="314">
+        <v>0.9365879685366604</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.9368881117336804</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.8956561952858608</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.8312600503068167</v>
+      </c>
+      <c r="G19" t="n" s="318">
+        <v>2.4054054054054053</v>
+      </c>
+      <c r="H19" t="n" s="319">
+        <v>1.4806053465364064</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="308">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>38.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9647492929511042</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9525029971927801</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.8596432790614019</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.814523919322459</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>2.8947368421052633</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.9835740835906435</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="B20" t="n" s="313">
+        <v>37.0</v>
+      </c>
+      <c r="C20" t="n" s="314">
+        <v>0.9570469415635909</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.9191439036342088</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.8553499279317569</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.8188042071313163</v>
+      </c>
+      <c r="G20" t="n" s="318">
+        <v>2.972972972972973</v>
+      </c>
+      <c r="H20" t="n" s="319">
+        <v>1.9505908860662722</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
+    <row r="23">
+      <c r="A23" t="s" s="323">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+      <c r="C24" t="s" s="337">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="D24" t="s" s="337">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="E24" t="s" s="337">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="F24" t="s" s="337">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="G24" t="s" s="337">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="H24" t="s" s="337">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.8108108108108109</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="C23" t="n" s="340">
-        <v>0.13157894736842105</v>
-      </c>
-      <c r="D23" t="n" s="341">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="342">
-        <v>0.42105263157894735</v>
-      </c>
-      <c r="F23" t="n" s="343">
-        <v>0.23684210526315788</v>
-      </c>
-      <c r="G23" t="n" s="344">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+      <c r="B26" t="n" s="338">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="C26" t="n" s="339">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="D26" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="341">
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="F26" t="n" s="342">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="G26" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="C24" t="n" s="340">
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="D24" t="n" s="341">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="E24" t="n" s="342">
-        <v>0.18421052631578946</v>
-      </c>
-      <c r="F24" t="n" s="343">
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="G24" t="n" s="344">
-        <v>0.34210526315789475</v>
-      </c>
-      <c r="H24" t="n" s="345">
+      <c r="B27" t="n" s="338">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="C27" t="n" s="339">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="D27" t="n" s="340">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="E27" t="n" s="341">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="F27" t="n" s="342">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="G27" t="n" s="343">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6187,7 +6175,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
+      <c r="A1" t="s" s="346">
         <v>46</v>
       </c>
     </row>
@@ -6202,66 +6190,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.8246808510638297</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.8247602750721374</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.7017804602569591</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.7017804602569591</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>4.706468669770223</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.05686268087313039</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>1.868421052631579</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.2928295519346773</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.7017804602569591</v>
+      <c r="A6" t="n" s="375">
+        <v>0.8958953004164187</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.8976942787569016</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.8143786804848916</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.8143786804848918</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>8.77462440857832</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.033864374874676986</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>3.6486486486486487</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>1.1233930799199414</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.8143786804848917</v>
       </c>
     </row>
     <row r="7">
@@ -6275,81 +6263,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.701780460256959</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.701780460256959</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.49249581439846923</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.701780460256959</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.701780460256959</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.701780460256959</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.8143786804848918</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.8143786804848918</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.6632126352283132</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.8143786804848918</v>
+      </c>
+      <c r="F11" s="406"/>
+      <c r="G11" s="407"/>
+      <c r="H11" t="n" s="408">
+        <v>0.8143786804848918</v>
+      </c>
+      <c r="I11" t="n" s="409">
+        <v>0.8143786804848918</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.49249581439846923</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.701780460256959</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.49249581439846923</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.701780460256959</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.6632126352283132</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.8143786804848918</v>
+      </c>
+      <c r="D12" s="404"/>
+      <c r="E12" s="405"/>
+      <c r="F12" s="406"/>
+      <c r="G12" s="407"/>
+      <c r="H12" t="n" s="408">
+        <v>0.6632126352283132</v>
+      </c>
+      <c r="I12" t="n" s="409">
+        <v>0.8143786804848918</v>
       </c>
     </row>
     <row r="13">
@@ -6363,84 +6351,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
+      <c r="A15" t="s" s="413">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="B16" t="s" s="427">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+      <c r="C16" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="D16" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="E16" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="F16" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="G16" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H16" t="s" s="427">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>38.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9238937403583057</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.922437114457392</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.7727471367321359</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7017804602569588</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.0</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.4142135623730951</v>
+      <c r="A17" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n" s="428">
+        <v>37.0</v>
+      </c>
+      <c r="C17" t="n" s="429">
+        <v>0.9565310626414537</v>
+      </c>
+      <c r="D17" t="n" s="430">
+        <v>0.9524648761200833</v>
+      </c>
+      <c r="E17" t="n" s="431">
+        <v>0.8595322320056429</v>
+      </c>
+      <c r="F17" t="n" s="432">
+        <v>0.8143786804848917</v>
+      </c>
+      <c r="G17" t="n" s="433">
+        <v>3.3513513513513513</v>
+      </c>
+      <c r="H17" t="n" s="434">
+        <v>1.2296389762902005</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
-        <v>38.0</v>
-      </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9209672430523096</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.922437114457392</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.7727471367321357</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.701780460256959</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>1.736842105263158</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.3888398916598408</v>
+      <c r="A18" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n" s="428">
+        <v>37.0</v>
+      </c>
+      <c r="C18" t="n" s="429">
+        <v>0.9482215300759717</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.9524648761200835</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.8595322320056431</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.8143786804848916</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>3.945945945945946</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>1.1290592432528839</v>
       </c>
     </row>
     <row r="19">
@@ -6454,74 +6442,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="439">
+      <c r="A21" t="s" s="438">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="453">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="453">
+      <c r="B22" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C22" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D22" t="s" s="452">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E22" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F22" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="452">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.23684210526315788</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.07894736842105263</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.18421052631578946</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.18421052631578946</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="A23" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B23" t="n" s="453">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="C23" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="n" s="455">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="E23" t="n" s="456">
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="F23" t="n" s="457">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="G23" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.2894736842105263</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.13157894736842105</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="A24" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n" s="453">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="C24" t="n" s="454">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="D24" t="n" s="455">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="E24" t="n" s="456">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="F24" t="n" s="457">
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="G24" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
@@ -6551,7 +6539,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
+      <c r="A1" t="s" s="460">
         <v>47</v>
       </c>
     </row>
@@ -6566,66 +6554,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="474">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="488">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="488">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="488">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="488">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="488">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="488">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="488">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="488">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="488">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9946569178852644</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9946851645588701</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.989426525395305</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.989426525395305</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>187.15257990139972</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0017288873624272203</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.6052631578947368</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.590333530957282</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9894265253953051</v>
+      <c r="A6" t="n" s="489">
+        <v>0.6425204663855124</v>
+      </c>
+      <c r="B6" t="n" s="490">
+        <v>0.6451254898366954</v>
+      </c>
+      <c r="C6" t="n" s="491">
+        <v>0.47615147011581016</v>
+      </c>
+      <c r="D6" t="n" s="492">
+        <v>0.47615147011581005</v>
+      </c>
+      <c r="E6" t="n" s="493">
+        <v>1.8178975140813145</v>
+      </c>
+      <c r="F6" t="n" s="494">
+        <v>0.11663661095183701</v>
+      </c>
+      <c r="G6" t="n" s="495">
+        <v>1.527027027027027</v>
+      </c>
+      <c r="H6" t="n" s="496">
+        <v>1.230096800312129</v>
+      </c>
+      <c r="I6" t="n" s="497">
+        <v>0.4761514701158101</v>
       </c>
     </row>
     <row r="7">
@@ -6639,81 +6627,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="501">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="515">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="515">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="515">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="515">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="515">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="515">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="515">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="515">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9894265253953051</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9894265253953051</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.978964849155826</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9894265253953051</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9894265253953051</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9894265253953051</v>
+      <c r="A11" t="s" s="511">
+        <v>26</v>
+      </c>
+      <c r="B11" t="n" s="516">
+        <v>0.4761514701158101</v>
+      </c>
+      <c r="C11" t="n" s="517">
+        <v>0.4761514701158101</v>
+      </c>
+      <c r="D11" t="n" s="518">
+        <v>0.22672022249344737</v>
+      </c>
+      <c r="E11" t="n" s="519">
+        <v>0.4761514701158101</v>
+      </c>
+      <c r="F11" s="520"/>
+      <c r="G11" s="521"/>
+      <c r="H11" t="n" s="522">
+        <v>0.4761514701158101</v>
+      </c>
+      <c r="I11" t="n" s="523">
+        <v>0.4761514701158101</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.978964849155826</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9894265253953051</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.978964849155826</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9894265253953051</v>
+      <c r="A12" t="s" s="511">
+        <v>27</v>
+      </c>
+      <c r="B12" t="n" s="516">
+        <v>0.22672022249344737</v>
+      </c>
+      <c r="C12" t="n" s="517">
+        <v>0.4761514701158101</v>
+      </c>
+      <c r="D12" s="518"/>
+      <c r="E12" s="519"/>
+      <c r="F12" s="520"/>
+      <c r="G12" s="521"/>
+      <c r="H12" t="n" s="522">
+        <v>0.22672022249344737</v>
+      </c>
+      <c r="I12" t="n" s="523">
+        <v>0.4761514701158101</v>
       </c>
     </row>
     <row r="13">
@@ -6727,84 +6715,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
+      <c r="A15" t="s" s="527">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
+      <c r="B16" t="s" s="541">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="542">
+      <c r="C16" t="s" s="541">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="D16" t="s" s="541">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="E16" t="s" s="541">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="F16" t="s" s="541">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="G16" t="s" s="541">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="541">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
-        <v>38.0</v>
-      </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9973248808112953</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9973531283841509</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9920663724144497</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9894265253953051</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.6052631578947368</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.5860791992121774</v>
+      <c r="A17" t="s" s="537">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n" s="542">
+        <v>37.0</v>
+      </c>
+      <c r="C17" t="n" s="543">
+        <v>0.8420148334722426</v>
+      </c>
+      <c r="D17" t="n" s="544">
+        <v>0.8591133423814956</v>
+      </c>
+      <c r="E17" t="n" s="545">
+        <v>0.5928202478868523</v>
+      </c>
+      <c r="F17" t="n" s="546">
+        <v>0.4761514701158101</v>
+      </c>
+      <c r="G17" t="n" s="547">
+        <v>1.054054054054054</v>
+      </c>
+      <c r="H17" t="n" s="548">
+        <v>1.3528970139409469</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
-        <v>38.0</v>
-      </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9973812262237146</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9973531283841509</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9920663724144497</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.989426525395305</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.6052631578947368</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.6030287833434544</v>
+      <c r="A18" t="s" s="537">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n" s="542">
+        <v>37.0</v>
+      </c>
+      <c r="C18" t="n" s="543">
+        <v>0.8753029671783117</v>
+      </c>
+      <c r="D18" t="n" s="544">
+        <v>0.8591133423814956</v>
+      </c>
+      <c r="E18" t="n" s="545">
+        <v>0.5928202478868521</v>
+      </c>
+      <c r="F18" t="n" s="546">
+        <v>0.4761514701158102</v>
+      </c>
+      <c r="G18" t="n" s="547">
+        <v>2.0</v>
+      </c>
+      <c r="H18" t="n" s="548">
+        <v>1.509230856356236</v>
       </c>
     </row>
     <row r="19">
@@ -6818,65 +6806,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
+      <c r="A21" t="s" s="552">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
+      <c r="B22" t="s" s="566">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="567">
+      <c r="C22" t="s" s="566">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s" s="566">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s" s="566">
         <v>40</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="F22" t="s" s="566">
         <v>41</v>
       </c>
-      <c r="E22" t="s" s="567">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s" s="567">
+      <c r="G22" t="s" s="566">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.868421052631579</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.07894736842105263</v>
-      </c>
-      <c r="F23" t="n" s="572">
+      <c r="A23" t="s" s="562">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n" s="567">
+        <v>0.5405405405405406</v>
+      </c>
+      <c r="C23" t="n" s="568">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="D23" t="n" s="569">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="E23" t="n" s="570">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="F23" t="n" s="571">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="G23" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.868421052631579</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.0</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="F24" t="n" s="572">
+      <c r="A24" t="s" s="562">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n" s="567">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="C24" t="n" s="568">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="D24" t="n" s="569">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="E24" t="n" s="570">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="F24" t="n" s="571">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="G24" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
@@ -6956,31 +6953,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="603">
-        <v>0.6491228070175439</v>
+        <v>0.822748395662757</v>
       </c>
       <c r="B6" t="n" s="604">
-        <v>0.6516356449834284</v>
+        <v>0.8228031585721636</v>
       </c>
       <c r="C6" t="n" s="605">
-        <v>0.48327860534063105</v>
+        <v>0.6989512115698302</v>
       </c>
       <c r="D6" t="n" s="606">
-        <v>0.4832786053406313</v>
+        <v>0.6989512115698302</v>
       </c>
       <c r="E6" t="n" s="607">
-        <v>1.8705577525359347</v>
+        <v>4.643441451563632</v>
       </c>
       <c r="F6" t="n" s="608">
-        <v>0.11299381158087826</v>
+        <v>0.05826708652800063</v>
       </c>
       <c r="G6" t="n" s="609">
-        <v>1.5</v>
+        <v>1.8918918918918919</v>
       </c>
       <c r="H6" t="n" s="610">
-        <v>1.224744871391589</v>
+        <v>1.3024290081694745</v>
       </c>
       <c r="I6" t="n" s="611">
-        <v>0.48327860534063116</v>
+        <v>0.6989512115698302</v>
       </c>
     </row>
     <row r="7">
@@ -7027,48 +7024,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="625">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n" s="630">
-        <v>0.48327860534063116</v>
+        <v>0.6989512115698302</v>
       </c>
       <c r="C11" t="n" s="631">
-        <v>0.48327860534063116</v>
+        <v>0.6989512115698302</v>
       </c>
       <c r="D11" t="n" s="632">
-        <v>0.23355821037998536</v>
+        <v>0.4885327961549336</v>
       </c>
       <c r="E11" t="n" s="633">
-        <v>0.48327860534063116</v>
+        <v>0.6989512115698302</v>
       </c>
       <c r="F11" s="634"/>
       <c r="G11" s="635"/>
       <c r="H11" t="n" s="636">
-        <v>0.48327860534063116</v>
+        <v>0.6989512115698302</v>
       </c>
       <c r="I11" t="n" s="637">
-        <v>0.48327860534063116</v>
+        <v>0.6989512115698302</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="625">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="n" s="630">
-        <v>0.23355821037998536</v>
+        <v>0.4885327961549336</v>
       </c>
       <c r="C12" t="n" s="631">
-        <v>0.48327860534063116</v>
+        <v>0.6989512115698302</v>
       </c>
       <c r="D12" s="632"/>
       <c r="E12" s="633"/>
       <c r="F12" s="634"/>
       <c r="G12" s="635"/>
       <c r="H12" t="n" s="636">
-        <v>0.23355821037998536</v>
+        <v>0.4885327961549336</v>
       </c>
       <c r="I12" t="n" s="637">
-        <v>0.48327860534063116</v>
+        <v>0.6989512115698302</v>
       </c>
     </row>
     <row r="13">
@@ -7112,54 +7109,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="651">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n" s="656">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C17" t="n" s="657">
-        <v>0.8447119584291117</v>
+        <v>0.9228934030810568</v>
       </c>
       <c r="D17" t="n" s="658">
-        <v>0.861184824918737</v>
+        <v>0.921670009159957</v>
       </c>
       <c r="E17" t="n" s="659">
-        <v>0.5986805557726994</v>
+        <v>0.7705465617744213</v>
       </c>
       <c r="F17" t="n" s="660">
-        <v>0.48327860534063105</v>
+        <v>0.6989512115698301</v>
       </c>
       <c r="G17" t="n" s="661">
-        <v>1.0263157894736843</v>
+        <v>2.027027027027027</v>
       </c>
       <c r="H17" t="n" s="662">
-        <v>1.3453994103081315</v>
+        <v>1.4237369936287485</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="651">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n" s="656">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C18" t="n" s="657">
-        <v>0.8767994871198813</v>
+        <v>0.9204373815764014</v>
       </c>
       <c r="D18" t="n" s="658">
-        <v>0.861184824918737</v>
+        <v>0.921670009159957</v>
       </c>
       <c r="E18" t="n" s="659">
-        <v>0.5986805557726994</v>
+        <v>0.7705465617744212</v>
       </c>
       <c r="F18" t="n" s="660">
-        <v>0.48327860534063116</v>
+        <v>0.6989512115698302</v>
       </c>
       <c r="G18" t="n" s="661">
-        <v>1.9736842105263157</v>
+        <v>1.7567567567567568</v>
       </c>
       <c r="H18" t="n" s="662">
-        <v>1.4975085995378792</v>
+        <v>1.40248599528372</v>
       </c>
     </row>
     <row r="19">
@@ -7200,22 +7197,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="676">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n" s="681">
-        <v>0.5526315789473685</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="C23" t="n" s="682">
-        <v>0.13157894736842105</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="D23" t="n" s="683">
-        <v>0.10526315789473684</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="E23" t="n" s="684">
-        <v>0.15789473684210525</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="F23" t="n" s="685">
-        <v>0.05263157894736842</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="G23" t="n" s="686">
         <v>0.0</v>
@@ -7223,22 +7220,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="676">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n" s="681">
-        <v>0.23684210526315788</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C24" t="n" s="682">
-        <v>0.21052631578947367</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="D24" t="n" s="683">
-        <v>0.07894736842105263</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="E24" t="n" s="684">
-        <v>0.2894736842105263</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="F24" t="n" s="685">
-        <v>0.18421052631578946</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="G24" t="n" s="686">
         <v>0.0</v>
@@ -7320,31 +7317,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="717">
-        <v>0.8476017574880218</v>
+        <v>0.796856008427194</v>
       </c>
       <c r="B6" t="n" s="718">
-        <v>0.8486484417632665</v>
+        <v>0.8253670233911043</v>
       </c>
       <c r="C6" t="n" s="719">
-        <v>0.9342075280160105</v>
+        <v>0.9227541540135334</v>
       </c>
       <c r="D6" t="n" s="720">
-        <v>0.3592673637791146</v>
+        <v>0.3443241765026241</v>
       </c>
       <c r="E6" t="n" s="721">
-        <v>5.607133825711061</v>
+        <v>4.726295339050303</v>
       </c>
       <c r="F6" t="n" s="722">
-        <v>0.037896342490096886</v>
+        <v>0.04926122931467427</v>
       </c>
       <c r="G6" t="n" s="723">
-        <v>2.192105263157895</v>
+        <v>1.7237237237237237</v>
       </c>
       <c r="H6" t="n" s="724">
-        <v>0.949930745398122</v>
+        <v>0.8284306902328226</v>
       </c>
       <c r="I6" t="n" s="725">
-        <v>0.286952686596594</v>
+        <v>0.2858125329730635</v>
       </c>
     </row>
     <row r="7">
@@ -7391,292 +7388,268 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="739">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="744">
-        <v>0.8252613189973843</v>
+        <v>0.7881259876395106</v>
       </c>
       <c r="C11" t="n" s="745">
-        <v>0.8249419068152624</v>
+        <v>0.7882142267597274</v>
       </c>
       <c r="D11" t="n" s="746">
-        <v>0.9116337174246307</v>
+        <v>0.8937685392294674</v>
       </c>
       <c r="E11" t="n" s="747">
-        <v>0.3436592469726221</v>
+        <v>0.3175081956615667</v>
       </c>
       <c r="F11" t="n" s="748">
-        <v>4.712389423462455</v>
+        <v>3.721752479877353</v>
       </c>
       <c r="G11" t="n" s="749">
-        <v>0.04360986334039276</v>
+        <v>0.05366953565004676</v>
       </c>
       <c r="H11" t="n" s="750">
-        <v>0.03915808328291223</v>
+        <v>0.04193106268544353</v>
       </c>
       <c r="I11" t="n" s="751">
-        <v>0.285435643124355</v>
+        <v>0.2789198247608302</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="739">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="744">
-        <v>0.8291458714119307</v>
+        <v>0.7530360897738488</v>
       </c>
       <c r="C12" t="n" s="745">
-        <v>0.8291076398470539</v>
+        <v>0.7864974905918595</v>
       </c>
       <c r="D12" t="n" s="746">
-        <v>0.9164194283923922</v>
+        <v>0.8921264327759755</v>
       </c>
       <c r="E12" t="n" s="747">
-        <v>0.35025728588366145</v>
+        <v>0.3152904198217826</v>
       </c>
       <c r="F12" t="n" s="748">
-        <v>4.851636662429001</v>
+        <v>3.683785697751951</v>
       </c>
       <c r="G12" t="n" s="749">
-        <v>0.0428310660880491</v>
+        <v>0.060304750253229684</v>
       </c>
       <c r="H12" t="n" s="750">
-        <v>0.04154786751867044</v>
+        <v>0.04225663987450178</v>
       </c>
       <c r="I12" t="n" s="751">
-        <v>0.29956990452765553</v>
+        <v>0.27700227650534637</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="739">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="744">
-        <v>0.8175927417730697</v>
+        <v>0.7502603714632876</v>
       </c>
       <c r="C13" t="n" s="745">
-        <v>0.8190435963425106</v>
+        <v>0.7849586672709121</v>
       </c>
       <c r="D13" t="n" s="746">
-        <v>0.90637813428682</v>
+        <v>0.8958742561196715</v>
       </c>
       <c r="E13" t="n" s="747">
-        <v>0.3346243069892605</v>
+        <v>0.3133205646757645</v>
       </c>
       <c r="F13" t="n" s="748">
-        <v>4.526192938122155</v>
+        <v>3.6502687986026108</v>
       </c>
       <c r="G13" t="n" s="749">
-        <v>0.04562021381262514</v>
+        <v>0.061150653937330615</v>
       </c>
       <c r="H13" t="n" s="750">
-        <v>0.03937388449457157</v>
+        <v>0.0430010602587901</v>
       </c>
       <c r="I13" t="n" s="751">
-        <v>0.28022770355487703</v>
+        <v>0.278490642149552</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="739">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="744">
-        <v>0.825040562466198</v>
+        <v>0.7795530119979037</v>
       </c>
       <c r="C14" t="n" s="745">
-        <v>0.8259587508756243</v>
+        <v>0.8129521100325585</v>
       </c>
       <c r="D14" t="n" s="746">
-        <v>0.9120860625523735</v>
+        <v>0.8907679548250188</v>
       </c>
       <c r="E14" t="n" s="747">
-        <v>0.34525285110921927</v>
+        <v>0.3520286269190936</v>
       </c>
       <c r="F14" t="n" s="748">
-        <v>4.745764323291925</v>
+        <v>4.346224435753138</v>
       </c>
       <c r="G14" t="n" s="749">
-        <v>0.04394882559758542</v>
+        <v>0.052778577909206766</v>
       </c>
       <c r="H14" t="n" s="750">
-        <v>0.03990248946526276</v>
+        <v>0.06324155915380741</v>
       </c>
       <c r="I14" t="n" s="751">
-        <v>0.285435643124355</v>
+        <v>0.2915567598032953</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="739">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="744">
-        <v>0.8405300677648716</v>
+        <v>0.7823629578638455</v>
       </c>
       <c r="C15" t="n" s="745">
-        <v>0.8420137400450235</v>
+        <v>0.8155205248262565</v>
       </c>
       <c r="D15" t="n" s="746">
-        <v>0.9257400169690183</v>
+        <v>0.8977120464896658</v>
       </c>
       <c r="E15" t="n" s="747">
-        <v>0.37193225396304996</v>
+        <v>0.35591169976297554</v>
       </c>
       <c r="F15" t="n" s="748">
-        <v>5.329664366287197</v>
+        <v>4.420657225191019</v>
       </c>
       <c r="G15" t="n" s="749">
-        <v>0.03978426310614798</v>
+        <v>0.052654257237480226</v>
       </c>
       <c r="H15" t="n" s="750">
-        <v>0.04962960935680297</v>
+        <v>0.06353042244735979</v>
       </c>
       <c r="I15" t="n" s="751">
-        <v>0.29956990452765553</v>
+        <v>0.2858125329730635</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="739">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n" s="744">
-        <v>0.843937361403893</v>
+        <v>0.7826949194757346</v>
       </c>
       <c r="C16" t="n" s="745">
-        <v>0.8454994027907319</v>
+        <v>0.8196744602475607</v>
       </c>
       <c r="D16" t="n" s="746">
-        <v>0.9208626051152756</v>
+        <v>0.9189118100335871</v>
       </c>
       <c r="E16" t="n" s="747">
-        <v>0.37812951530014466</v>
+        <v>0.3623224812617651</v>
       </c>
       <c r="F16" t="n" s="748">
-        <v>5.472466890503469</v>
+        <v>4.545526171017456</v>
       </c>
       <c r="G16" t="n" s="749">
-        <v>0.03884488002750555</v>
+        <v>0.052442133161911875</v>
       </c>
       <c r="H16" t="n" s="750">
-        <v>0.04679065502191714</v>
+        <v>0.0714926486200209</v>
       </c>
       <c r="I16" t="n" s="751">
-        <v>0.2954912827801598</v>
+        <v>0.2915567598032953</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="739">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="744">
-        <v>0.8321470588235294</v>
+        <v>0.7943339638316146</v>
       </c>
       <c r="C17" t="n" s="745">
-        <v>0.8346311639849856</v>
+        <v>0.8266524145214422</v>
       </c>
       <c r="D17" t="n" s="746">
-        <v>0.8968344314723202</v>
+        <v>0.9295285554561535</v>
       </c>
       <c r="E17" t="n" s="747">
-        <v>0.3592978397059406</v>
+        <v>0.37347070265539284</v>
       </c>
       <c r="F17" t="n" s="748">
-        <v>5.047088581485852</v>
+        <v>4.768756439493036</v>
       </c>
       <c r="G17" t="n" s="749">
-        <v>0.041581152585099326</v>
+        <v>0.049736032837488814</v>
       </c>
       <c r="H17" t="n" s="750">
-        <v>0.042759441651310494</v>
+        <v>0.06925130765420201</v>
       </c>
       <c r="I17" t="n" s="751">
-        <v>0.2815036443180393</v>
+        <v>0.2934626126044291</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="739">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="744">
-        <v>0.8312342196623007</v>
+        <v>0.7774012173484235</v>
       </c>
       <c r="C18" t="n" s="745">
-        <v>0.8336588893396317</v>
+        <v>0.8140656965277037</v>
       </c>
       <c r="D18" t="n" s="746">
-        <v>0.8959453805370448</v>
+        <v>0.9110155601508736</v>
       </c>
       <c r="E18" t="n" s="747">
-        <v>0.3576816225188828</v>
+        <v>0.35370475966529086</v>
       </c>
       <c r="F18" t="n" s="748">
-        <v>5.011742954162293</v>
+        <v>4.378243720094378</v>
       </c>
       <c r="G18" t="n" s="749">
-        <v>0.041759508669396914</v>
+        <v>0.05407620936990599</v>
       </c>
       <c r="H18" t="n" s="750">
-        <v>0.043055594278760684</v>
+        <v>0.0679580193846172</v>
       </c>
       <c r="I18" t="n" s="751">
-        <v>0.28415970236119265</v>
+        <v>0.2858125329730635</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="739">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="744">
-        <v>0.8396369764614875</v>
+        <v>0.7780394267644486</v>
       </c>
       <c r="C19" t="n" s="745">
-        <v>0.8408155310363101</v>
+        <v>0.8151581401071796</v>
       </c>
       <c r="D19" t="n" s="746">
-        <v>0.9331629083220471</v>
+        <v>0.9014698975877227</v>
       </c>
       <c r="E19" t="n" s="747">
-        <v>0.3698370349470703</v>
+        <v>0.35536013809998473</v>
       </c>
       <c r="F19" t="n" s="748">
-        <v>5.282019888687139</v>
+        <v>4.410029960636864</v>
       </c>
       <c r="G19" t="n" s="749">
-        <v>0.04022837194039211</v>
+        <v>0.05369518522858543</v>
       </c>
       <c r="H19" t="n" s="750">
-        <v>0.053343991186289456</v>
+        <v>0.06658063819270679</v>
       </c>
       <c r="I19" t="n" s="751">
-        <v>0.29103130834408975</v>
+        <v>0.2789198247608302</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="739">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="744">
-        <v>0.8473270901293847</v>
-      </c>
-      <c r="C20" t="n" s="745">
-        <v>0.847634055396632</v>
-      </c>
-      <c r="D20" t="n" s="746">
-        <v>0.9383711517379887</v>
-      </c>
-      <c r="E20" t="n" s="747">
-        <v>0.3820016804012945</v>
-      </c>
-      <c r="F20" t="n" s="748">
-        <v>5.563146394708824</v>
-      </c>
-      <c r="G20" t="n" s="749">
-        <v>0.03845458130255251</v>
-      </c>
-      <c r="H20" t="n" s="750">
-        <v>0.05117583556627051</v>
-      </c>
-      <c r="I20" t="n" s="751">
-        <v>0.29956990452765553</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7685,359 +7658,380 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>1</v>
+      <c r="A22" t="s" s="755">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="755">
-        <v>30</v>
+      <c r="A23"/>
+      <c r="B23" t="s" s="769">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="769">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="769">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="769">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="769">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="769">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="769">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="769">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="769">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="769">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="769">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="769">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="769">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="769">
-        <v>10</v>
+      <c r="A24" t="s" s="765">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="770">
+        <v>37.0</v>
+      </c>
+      <c r="C24" t="n" s="771">
+        <v>0.7463685164680649</v>
+      </c>
+      <c r="D24" t="n" s="772">
+        <v>0.7750586780230916</v>
+      </c>
+      <c r="E24" t="n" s="773">
+        <v>0.8050154325781531</v>
+      </c>
+      <c r="F24" t="n" s="774">
+        <v>0.7246668059482579</v>
+      </c>
+      <c r="G24" t="n" s="775">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="H24" t="n" s="776">
+        <v>0.3465834966066909</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="765">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="770">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C25" t="n" s="771">
-        <v>0.7251921668914962</v>
+        <v>0.7596312248163507</v>
       </c>
       <c r="D25" t="n" s="772">
-        <v>0.7370054002437457</v>
+        <v>0.7857411796526073</v>
       </c>
       <c r="E25" t="n" s="773">
-        <v>0.7324103642355266</v>
+        <v>0.816785964466965</v>
       </c>
       <c r="F25" t="n" s="774">
-        <v>0.6476509557778782</v>
+        <v>0.6418825871733836</v>
       </c>
       <c r="G25" t="n" s="775">
-        <v>3.263157894736842</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H25" t="n" s="776">
-        <v>1.329177972471541</v>
+        <v>1.6047040459458795</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="765">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="770">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C26" t="n" s="771">
-        <v>0.6877861248437808</v>
+        <v>0.7722405770820254</v>
       </c>
       <c r="D26" t="n" s="772">
-        <v>0.7004987152335578</v>
+        <v>0.795229505943192</v>
       </c>
       <c r="E26" t="n" s="773">
-        <v>0.6876545781360845</v>
+        <v>0.8244700721615922</v>
       </c>
       <c r="F26" t="n" s="774">
-        <v>0.6056849472246136</v>
+        <v>0.6576920670163527</v>
       </c>
       <c r="G26" t="n" s="775">
-        <v>3.8421052631578947</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H26" t="n" s="776">
-        <v>1.2845509424523942</v>
+        <v>1.6219218941214866</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="765">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n" s="770">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C27" t="n" s="771">
-        <v>0.7883330693918216</v>
+        <v>0.5918034876765416</v>
       </c>
       <c r="D27" t="n" s="772">
-        <v>0.786995361276967</v>
+        <v>0.6087819260876874</v>
       </c>
       <c r="E27" t="n" s="773">
-        <v>0.7941011268900454</v>
+        <v>0.5869429427573235</v>
       </c>
       <c r="F27" t="n" s="774">
-        <v>0.7186096906474042</v>
+        <v>0.46800068211307017</v>
       </c>
       <c r="G27" t="n" s="775">
-        <v>3.1842105263157894</v>
+        <v>3.3513513513513513</v>
       </c>
       <c r="H27" t="n" s="776">
-        <v>1.4492358314026523</v>
+        <v>1.2296389762902005</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="765">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" t="n" s="770">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C28" t="n" s="771">
-        <v>0.7324669842744211</v>
+        <v>0.5643477867657014</v>
       </c>
       <c r="D28" t="n" s="772">
-        <v>0.7281880523878017</v>
+        <v>0.5900780826973043</v>
       </c>
       <c r="E28" t="n" s="773">
-        <v>0.7289032971740951</v>
+        <v>0.5615911968776457</v>
       </c>
       <c r="F28" t="n" s="774">
-        <v>0.6324036140922333</v>
+        <v>0.4473410658719992</v>
       </c>
       <c r="G28" t="n" s="775">
-        <v>3.6842105263157894</v>
+        <v>3.945945945945946</v>
       </c>
       <c r="H28" t="n" s="776">
-        <v>1.6782433408887858</v>
+        <v>1.1290592432528839</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="765">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="n" s="770">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C29" t="n" s="771">
-        <v>0.5773952816337719</v>
+        <v>0.5837334263179935</v>
       </c>
       <c r="D29" t="n" s="772">
-        <v>0.5805719850416211</v>
+        <v>0.5591988646181882</v>
       </c>
       <c r="E29" t="n" s="773">
-        <v>0.5282480409371015</v>
+        <v>0.48972608869235856</v>
       </c>
       <c r="F29" t="n" s="774">
-        <v>0.46472834651580197</v>
+        <v>0.4439501439367443</v>
       </c>
       <c r="G29" t="n" s="775">
-        <v>2.0</v>
+        <v>1.054054054054054</v>
       </c>
       <c r="H29" t="n" s="776">
-        <v>1.4142135623730951</v>
+        <v>1.3528970139409469</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="765">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="n" s="770">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C30" t="n" s="771">
-        <v>0.5392093359401525</v>
+        <v>0.5406139516094641</v>
       </c>
       <c r="D30" t="n" s="772">
-        <v>0.5462827862949143</v>
+        <v>0.505500519155455</v>
       </c>
       <c r="E30" t="n" s="773">
-        <v>0.5020732347282292</v>
+        <v>0.4080773177269773</v>
       </c>
       <c r="F30" t="n" s="774">
-        <v>0.42287796518959964</v>
+        <v>0.3729911977827225</v>
       </c>
       <c r="G30" t="n" s="775">
-        <v>1.736842105263158</v>
+        <v>2.0</v>
       </c>
       <c r="H30" t="n" s="776">
-        <v>1.3888398916598408</v>
+        <v>1.509230856356236</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="765">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n" s="770">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C31" t="n" s="771">
-        <v>0.6705622543844998</v>
+        <v>0.6240692960579787</v>
       </c>
       <c r="D31" t="n" s="772">
-        <v>0.6504776930544685</v>
+        <v>0.6007083911202037</v>
       </c>
       <c r="E31" t="n" s="773">
-        <v>0.6699598407443599</v>
+        <v>0.5425484801814869</v>
       </c>
       <c r="F31" t="n" s="774">
-        <v>0.5616495189248067</v>
+        <v>0.4848047966695362</v>
       </c>
       <c r="G31" t="n" s="775">
-        <v>0.6052631578947368</v>
+        <v>2.027027027027027</v>
       </c>
       <c r="H31" t="n" s="776">
-        <v>1.5860791992121774</v>
+        <v>1.4237369936287485</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="765">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B32" t="n" s="770">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C32" t="n" s="771">
-        <v>0.6794458548660063</v>
+        <v>0.6179457589481137</v>
       </c>
       <c r="D32" t="n" s="772">
-        <v>0.659420158012844</v>
+        <v>0.5927348247620261</v>
       </c>
       <c r="E32" t="n" s="773">
-        <v>0.6792651995102341</v>
+        <v>0.5488464451155584</v>
       </c>
       <c r="F32" t="n" s="774">
-        <v>0.5712724019355561</v>
+        <v>0.4797062511973178</v>
       </c>
       <c r="G32" t="n" s="775">
-        <v>0.6052631578947368</v>
+        <v>1.7567567567567568</v>
       </c>
       <c r="H32" t="n" s="776">
-        <v>1.6030287833434544</v>
+        <v>1.40248599528372</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="765">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="770">
-        <v>38.0</v>
-      </c>
-      <c r="C33" t="n" s="771">
-        <v>0.579603202405956</v>
-      </c>
-      <c r="D33" t="n" s="772">
-        <v>0.5921647479329927</v>
-      </c>
-      <c r="E33" t="n" s="773">
-        <v>0.522035917444448</v>
-      </c>
-      <c r="F33" t="n" s="774">
-        <v>0.4734127191278767</v>
-      </c>
-      <c r="G33" t="n" s="775">
-        <v>1.0263157894736843</v>
-      </c>
-      <c r="H33" t="n" s="776">
-        <v>1.3453994103081315</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="765">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="770">
-        <v>38.0</v>
-      </c>
-      <c r="C34" t="n" s="771">
-        <v>0.5223300414975142</v>
-      </c>
-      <c r="D34" t="n" s="772">
-        <v>0.52485825188991</v>
-      </c>
-      <c r="E34" t="n" s="773">
-        <v>0.4441320745937163</v>
-      </c>
-      <c r="F34" t="n" s="774">
-        <v>0.39321286313992004</v>
-      </c>
-      <c r="G34" t="n" s="775">
-        <v>1.9736842105263157</v>
-      </c>
-      <c r="H34" t="n" s="776">
-        <v>1.4975085995378792</v>
+      <c r="A34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
+      <c r="A35" t="s" s="780">
+        <v>36</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
+      <c r="A36"/>
+      <c r="B36" t="s" s="794">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="794">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="794">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="794">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="794">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="794">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="794">
+        <v>43</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="780">
-        <v>36</v>
+      <c r="A37" t="s" s="790">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="795">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="C37" t="n" s="796">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="D37" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="801">
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="794">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="794">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="794">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="794">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="794">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="794">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="794">
-        <v>43</v>
+      <c r="A38" t="s" s="790">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="795">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="C38" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n" s="799">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="G38" t="n" s="800">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="H38" t="n" s="801">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="790">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B39" t="n" s="795">
-        <v>0.02631578947368421</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C39" t="n" s="796">
-        <v>0.15789473684210525</v>
+        <v>0.0</v>
       </c>
       <c r="D39" t="n" s="797">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="798">
-        <v>0.2894736842105263</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="F39" t="n" s="799">
-        <v>0.39473684210526316</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="800">
-        <v>0.13157894736842105</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="H39" t="n" s="801">
         <v>0.0</v>
@@ -8045,25 +8039,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="790">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n" s="795">
-        <v>0.02631578947368421</v>
+        <v>0.0</v>
       </c>
       <c r="C40" t="n" s="796">
-        <v>0.02631578947368421</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="D40" t="n" s="797">
-        <v>0.10526315789473684</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="798">
-        <v>0.15789473684210525</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="F40" t="n" s="799">
-        <v>0.2894736842105263</v>
+        <v>0.40540540540540543</v>
       </c>
       <c r="G40" t="n" s="800">
-        <v>0.39473684210526316</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="H40" t="n" s="801">
         <v>0.0</v>
@@ -8071,25 +8065,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="790">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="n" s="795">
-        <v>0.10526315789473684</v>
+        <v>0.0</v>
       </c>
       <c r="C41" t="n" s="796">
-        <v>0.05263157894736842</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="D41" t="n" s="797">
-        <v>0.02631578947368421</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="E41" t="n" s="798">
-        <v>0.3157894736842105</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="F41" t="n" s="799">
-        <v>0.3684210526315789</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="G41" t="n" s="800">
-        <v>0.13157894736842105</v>
+        <v>0.40540540540540543</v>
       </c>
       <c r="H41" t="n" s="801">
         <v>0.0</v>
@@ -8097,25 +8091,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="790">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B42" t="n" s="795">
-        <v>0.10526315789473684</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C42" t="n" s="796">
-        <v>0.02631578947368421</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="D42" t="n" s="797">
-        <v>0.05263157894736842</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="E42" t="n" s="798">
-        <v>0.21052631578947367</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="F42" t="n" s="799">
-        <v>0.10526315789473684</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G42" t="n" s="800">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="801">
         <v>0.0</v>
@@ -8123,22 +8117,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="790">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="n" s="795">
-        <v>0.23684210526315788</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="C43" t="n" s="796">
-        <v>0.07894736842105263</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="D43" t="n" s="797">
-        <v>0.3157894736842105</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="E43" t="n" s="798">
-        <v>0.18421052631578946</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="F43" t="n" s="799">
-        <v>0.18421052631578946</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="G43" t="n" s="800">
         <v>0.0</v>
@@ -8149,22 +8143,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="790">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="n" s="795">
-        <v>0.2894736842105263</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="C44" t="n" s="796">
-        <v>0.10526315789473684</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="D44" t="n" s="797">
-        <v>0.3157894736842105</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="E44" t="n" s="798">
-        <v>0.15789473684210525</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="F44" t="n" s="799">
-        <v>0.13157894736842105</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="G44" t="n" s="800">
         <v>0.0</v>
@@ -8175,105 +8169,27 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="790">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B45" t="n" s="795">
-        <v>0.868421052631579</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C45" t="n" s="796">
-        <v>0.0</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="D45" t="n" s="797">
-        <v>0.0</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="E45" t="n" s="798">
-        <v>0.0</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="F45" t="n" s="799">
-        <v>0.05263157894736842</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="G45" t="n" s="800">
-        <v>0.07894736842105263</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="790">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="795">
-        <v>0.868421052631579</v>
-      </c>
-      <c r="C46" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="798">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="F46" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="G46" t="n" s="800">
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="H46" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="790">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="795">
-        <v>0.5526315789473685</v>
-      </c>
-      <c r="C47" t="n" s="796">
-        <v>0.13157894736842105</v>
-      </c>
-      <c r="D47" t="n" s="797">
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="E47" t="n" s="798">
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="F47" t="n" s="799">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="G47" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="790">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="795">
-        <v>0.23684210526315788</v>
-      </c>
-      <c r="C48" t="n" s="796">
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="D48" t="n" s="797">
-        <v>0.07894736842105263</v>
-      </c>
-      <c r="E48" t="n" s="798">
-        <v>0.2894736842105263</v>
-      </c>
-      <c r="F48" t="n" s="799">
-        <v>0.18421052631578946</v>
-      </c>
-      <c r="G48" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="801">
         <v>0.0</v>
       </c>
     </row>
